--- a/Testdata/SalesDistribution.xlsx
+++ b/Testdata/SalesDistribution.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preisliste" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Bestellungen" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="RegionSummary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Customer" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,20 +47,13 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -112,9 +106,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -126,26 +117,31 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -222,6 +218,1085 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verkäufe pro Region</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>RegionSummary!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Sales</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <strRef>
+              <f>RegionSummary!$A$2:$A$8</f>
+              <strCache>
+                <ptCount val="7"/>
+                <pt idx="0">
+                  <v>Berlin</v>
+                </pt>
+                <pt idx="1">
+                  <v>Hamburg</v>
+                </pt>
+                <pt idx="2">
+                  <v>Munich</v>
+                </pt>
+                <pt idx="3">
+                  <v>Cologne</v>
+                </pt>
+                <pt idx="4">
+                  <v>Frankfurt</v>
+                </pt>
+                <pt idx="5">
+                  <v>Leipzig</v>
+                </pt>
+                <pt idx="6">
+                  <v>Dresden</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>RegionSummary!$B$2:$B$8</f>
+              <numCache>
+                <formatCode>"€"#,##0.00</formatCode>
+                <ptCount val="7"/>
+                <pt idx="0">
+                  <v>91.59999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>286.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>190</v>
+                </pt>
+                <pt idx="3">
+                  <v>792</v>
+                </pt>
+                <pt idx="4">
+                  <v>624.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>574.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>134.4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Region</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Gesamtumsatz (€)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="&quot;€&quot;#,##0.00" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>RegionSummary!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Sales</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <strRef>
+              <f>RegionSummary!$A$2:$A$7</f>
+              <strCache>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>Berlin</v>
+                </pt>
+                <pt idx="1">
+                  <v>Hamburg</v>
+                </pt>
+                <pt idx="2">
+                  <v>Munich</v>
+                </pt>
+                <pt idx="3">
+                  <v>Cologne</v>
+                </pt>
+                <pt idx="4">
+                  <v>Frankfurt</v>
+                </pt>
+                <pt idx="5">
+                  <v>Leipzig</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>RegionSummary!$B$2:$B$7</f>
+              <numCache>
+                <formatCode>"€"#,##0.00</formatCode>
+                <ptCount val="6"/>
+                <pt idx="0">
+                  <v>91.59999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>286.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>190</v>
+                </pt>
+                <pt idx="3">
+                  <v>792</v>
+                </pt>
+                <pt idx="4">
+                  <v>624.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>574.3</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Region</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Total Revenue (€)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="&quot;€&quot;#,##0.00" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>RegionSummary!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Sales</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <strRef>
+              <f>RegionSummary!$A$2:$A$5</f>
+              <strCache>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>Berlin</v>
+                </pt>
+                <pt idx="1">
+                  <v>Hamburg</v>
+                </pt>
+                <pt idx="2">
+                  <v>Munich</v>
+                </pt>
+                <pt idx="3">
+                  <v>Cologne</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>RegionSummary!$B$2:$B$5</f>
+              <numCache>
+                <formatCode>"€"#,##0.00</formatCode>
+                <ptCount val="4"/>
+                <pt idx="0">
+                  <v>91.59999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>286.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>190</v>
+                </pt>
+                <pt idx="3">
+                  <v>792</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Region</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Total Revenue (€)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="&quot;€&quot;#,##0.00" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>RegionSummary!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Sales</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <strRef>
+              <f>RegionSummary!$A$2:$A$6</f>
+              <strCache>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>Berlin</v>
+                </pt>
+                <pt idx="1">
+                  <v>Hamburg</v>
+                </pt>
+                <pt idx="2">
+                  <v>Munich</v>
+                </pt>
+                <pt idx="3">
+                  <v>Cologne</v>
+                </pt>
+                <pt idx="4">
+                  <v>Frankfurt</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>RegionSummary!$B$2:$B$6</f>
+              <numCache>
+                <formatCode>"€"#,##0.00</formatCode>
+                <ptCount val="5"/>
+                <pt idx="0">
+                  <v>91.59999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>286.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>190</v>
+                </pt>
+                <pt idx="3">
+                  <v>792</v>
+                </pt>
+                <pt idx="4">
+                  <v>624.1</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Region</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Total Revenue (€)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="&quot;€&quot;#,##0.00" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>RegionSummary!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Total Sales</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="1"/>
+          <cat>
+            <strRef>
+              <f>RegionSummary!$A$2:$A$8</f>
+              <strCache>
+                <ptCount val="7"/>
+                <pt idx="0">
+                  <v>Berlin</v>
+                </pt>
+                <pt idx="1">
+                  <v>Hamburg</v>
+                </pt>
+                <pt idx="2">
+                  <v>Munich</v>
+                </pt>
+                <pt idx="3">
+                  <v>Cologne</v>
+                </pt>
+                <pt idx="4">
+                  <v>Frankfurt</v>
+                </pt>
+                <pt idx="5">
+                  <v>Leipzig</v>
+                </pt>
+                <pt idx="6">
+                  <v>Dresden</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>RegionSummary!$B$2:$B$8</f>
+              <numCache>
+                <formatCode>"€"#,##0.00</formatCode>
+                <ptCount val="7"/>
+                <pt idx="0">
+                  <v>91.59999999999999</v>
+                </pt>
+                <pt idx="1">
+                  <v>286.2</v>
+                </pt>
+                <pt idx="2">
+                  <v>190</v>
+                </pt>
+                <pt idx="3">
+                  <v>792</v>
+                </pt>
+                <pt idx="4">
+                  <v>624.1</v>
+                </pt>
+                <pt idx="5">
+                  <v>574.3</v>
+                </pt>
+                <pt idx="6">
+                  <v>134.4</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Region</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Total Revenue (€)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="&quot;€&quot;#,##0.00" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,23 +1973,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.42578125" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.85546875" customWidth="1" style="2" min="2" max="2"/>
     <col width="18.28515625" customWidth="1" style="2" min="3" max="3"/>
     <col width="20.42578125" customWidth="1" style="2" min="4" max="4"/>
     <col width="21.140625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="29.28515625" customWidth="1" style="17" min="6" max="6"/>
-    <col width="15" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="8" max="25"/>
-    <col width="11.42578125" customWidth="1" style="1" min="26" max="16384"/>
+    <col width="23.140625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="23.5703125" customWidth="1" style="6" min="7" max="7"/>
+    <col width="17.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.42578125" customWidth="1" style="2" min="9" max="39"/>
+    <col width="11.42578125" customWidth="1" style="2" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -923,386 +1999,776 @@
           <t>Nr</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Bestelldatum</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>ProdID</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>verk. Einheiten</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Produktname</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Preis / Einheit in €</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Umsatz in €</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Traube</t>
+        </is>
+      </c>
+      <c r="G2" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Traube</t>
+        </is>
+      </c>
+      <c r="G3" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D4" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Auberginen</t>
+        </is>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>133.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Erdbeere</t>
+        </is>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Kartoffeln</t>
+        </is>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Kohlrabi</t>
+        </is>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Spinat</t>
+        </is>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Auberginen</t>
+        </is>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>66.60000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Kirsche</t>
+        </is>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="G11" s="18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>86.40000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Karotten</t>
+        </is>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H12" s="18" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Rosenkohl</t>
+        </is>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Kohlrabi</t>
+        </is>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H14" s="18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Wassermelone</t>
+        </is>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>229.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Apfel</t>
+        </is>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Brokkoli</t>
+        </is>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Auberginen</t>
+        </is>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Kartoffeln</t>
+        </is>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Auberginen</t>
-        </is>
-      </c>
-      <c r="F2" s="19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G2" s="20" t="n">
-        <v>162.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dresden</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Karotten</t>
-        </is>
-      </c>
-      <c r="F3" s="19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G3" s="19" t="n">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Zucchini</t>
+        </is>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>321.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Spinat</t>
+        </is>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Frankfurt</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Erdbeere</t>
-        </is>
-      </c>
-      <c r="F4" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Brokkoli</t>
+        </is>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>28.05.2025</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kirsche</t>
-        </is>
-      </c>
-      <c r="F5" s="19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G5" s="19" t="n">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Kohlrabi</t>
-        </is>
-      </c>
-      <c r="F6" s="19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>28.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17</v>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Auberginen</t>
-        </is>
-      </c>
-      <c r="F7" s="19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <v>173.9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>39</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Brokkoli</t>
-        </is>
-      </c>
-      <c r="F8" s="19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G8" s="20" t="n">
-        <v>163.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Leipzig</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pfirsich</t>
-        </is>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G9" s="20" t="n">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Berlin</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Spinat</t>
-        </is>
-      </c>
-      <c r="F10" s="19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G10" s="20" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Cologne</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pfirsich</t>
-        </is>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G11" s="19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Leipzig</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Rosenkohl</t>
-        </is>
-      </c>
-      <c r="F12" s="19" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="19" t="n">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>Zucchini</t>
         </is>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="G24" s="18" t="n">
         <v>7.3</v>
       </c>
-      <c r="G13" s="20" t="n">
-        <v>313.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>45</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Dresden</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Ananas</t>
-        </is>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="G14" s="20" t="n">
-        <v>382.5</v>
+      <c r="H24" s="18" t="n">
+        <v>51.1</v>
       </c>
     </row>
   </sheetData>
@@ -1318,96 +2784,818 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B1" s="20" t="inlineStr">
+        <is>
+          <t>Total Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>624.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>574.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>134.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.140625" customWidth="1" min="1" max="1"/>
-    <col width="22.7109375" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="B1" s="22" t="inlineStr">
-        <is>
-          <t>Total Sales</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Customer ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Postal Code</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Street Address</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>House Number</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Herter</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>28195</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Hauptstraße</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Finn</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Herter</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>10115</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Kirchstraße</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Elias</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Müller</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20095</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Schulz</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60313</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="B2" s="22" t="n">
-        <v>226.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Industriestraße</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Finn</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Hoffmann</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>80331</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Hamburg</t>
         </is>
       </c>
-      <c r="B3" s="22" t="n">
-        <v>477.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Munich</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="n">
-        <v>336.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>Cologne</t>
-        </is>
-      </c>
-      <c r="B5" s="22" t="n">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Feldstraße</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Müller</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10243</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Industriestraße</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Meyer</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50667</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Noah</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Scheunert</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10115</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Becker</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>04109</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Schulstraße</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Joachim</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Schulz</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37073</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>München</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Kirchstraße</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Lukas</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Müller</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60313</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Gartenstraße</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Joachim</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Hoffmann</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60313</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Kirchstraße</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50667</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Gartenstraße</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Felix</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Müller</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20095</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Bahnhofstraße</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Jens</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Scheunert</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>70173</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Bergstraße</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fischer</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>50667</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Parkstraße</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Maximilian</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Scheunert</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70173</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Bahnhofstraße</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t>Frankfurt</t>
-        </is>
-      </c>
-      <c r="B6" s="22" t="n">
-        <v>348.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Elias</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Becker</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60313</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Leipzig</t>
         </is>
       </c>
-      <c r="B7" s="22" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Dorfstraße</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Herter</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>37073</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Hauptstraße</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Hans</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Hoffmann</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10115</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Dresden</t>
         </is>
       </c>
-      <c r="B8" s="22" t="n">
-        <v>387.9</v>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Hauptstraße</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
